--- a/200 - Chassis/220 - Actuation/Actuation Naming Guide.xlsx
+++ b/200 - Chassis/220 - Actuation/Actuation Naming Guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajkof\Documents\Wisconsin Racing\git\CAD\active-cad\200 - Chassis\220 - Actuation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A28B1AB-9FFA-4183-BE2A-5B6F13A048C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396699F5-3256-4ABC-B1E8-645FB1BF09F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42610CB4-049C-45A7-9990-C2DEF4AC588F}"/>
+    <workbookView xWindow="16140" yWindow="2568" windowWidth="6900" windowHeight="5736" xr2:uid="{42610CB4-049C-45A7-9990-C2DEF4AC588F}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t>Description</t>
   </si>
@@ -154,21 +154,9 @@
     <t>Short Tube Section</t>
   </si>
   <si>
-    <t>Front Pushrod Long Section</t>
-  </si>
-  <si>
-    <t>Rear Pushrod Long Section</t>
-  </si>
-  <si>
     <t>Front Tierod Long Section</t>
   </si>
   <si>
-    <t>Rear Tierod Long Section</t>
-  </si>
-  <si>
-    <t>Turnbuckle Bolt</t>
-  </si>
-  <si>
     <t>Rod End Insert RH</t>
   </si>
   <si>
@@ -224,6 +212,57 @@
   </si>
   <si>
     <t>R Aft Bellcrank Mount Standoff</t>
+  </si>
+  <si>
+    <t>Adjustment Bolt</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Tube</t>
+  </si>
+  <si>
+    <t>Adjuster Insert</t>
+  </si>
+  <si>
+    <t>Adjustment Center</t>
+  </si>
+  <si>
+    <t>Adj Bolt</t>
+  </si>
+  <si>
+    <t>Adj Insert</t>
+  </si>
+  <si>
+    <t>Rod End Stuff</t>
+  </si>
+  <si>
+    <t>Rod End Length</t>
+  </si>
+  <si>
+    <t>Rear Tierod Tube</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>F Tie</t>
+  </si>
+  <si>
+    <t>Long Tube Length</t>
+  </si>
+  <si>
+    <t>Push</t>
+  </si>
+  <si>
+    <t>Pushrod Long Section</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Rear Tierod Long Rod End Insert LH</t>
   </si>
 </sst>
 </file>
@@ -630,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3B9C7F-7B97-4B66-9CA8-9719EFF74CB4}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <v>22</v>
@@ -694,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>22</v>
@@ -720,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8" s="3">
         <v>22</v>
@@ -737,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -750,7 +789,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D10" s="3">
         <v>22</v>
@@ -767,7 +806,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -780,7 +819,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D12" s="3">
         <v>22</v>
@@ -797,7 +836,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D13" s="3">
         <v>22</v>
@@ -821,12 +860,12 @@
       </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D17" s="3">
         <v>22</v>
@@ -838,12 +877,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -851,12 +890,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -864,12 +903,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D20" s="3">
         <v>22</v>
@@ -881,12 +920,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D21" s="3">
         <v>22</v>
@@ -898,12 +937,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D22" s="3">
         <v>22</v>
@@ -915,12 +954,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D23" s="3">
         <v>22</v>
@@ -932,15 +971,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>1</v>
       </c>
@@ -953,13 +992,25 @@
       <c r="E26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>9</v>
+      </c>
+      <c r="H26" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D27">
         <v>22</v>
@@ -967,13 +1018,25 @@
       <c r="E27" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28">
         <v>22</v>
@@ -981,13 +1044,29 @@
       <c r="E28" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" t="s">
+        <v>62</v>
+      </c>
+      <c r="L28">
+        <v>0.45</v>
+      </c>
+      <c r="M28">
+        <f>SUM(L26:L28)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D29">
         <v>22</v>
@@ -995,59 +1074,203 @@
       <c r="E29" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J29" t="s">
+        <v>59</v>
+      </c>
+      <c r="L29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G30">
+        <v>9</v>
+      </c>
+      <c r="H30" t="s">
+        <v>74</v>
+      </c>
+      <c r="J30" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>11</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31">
+        <v>9</v>
+      </c>
+      <c r="H31" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" t="s">
+        <v>64</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32">
+        <v>9</v>
+      </c>
+      <c r="H32" t="s">
+        <v>74</v>
+      </c>
+      <c r="J32" t="s">
+        <v>65</v>
+      </c>
+      <c r="L32">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
         <v>13</v>
       </c>
-      <c r="C32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="1">
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33">
+        <v>9</v>
+      </c>
+      <c r="H33" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
         <v>14</v>
       </c>
-      <c r="C33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="1">
-        <v>15</v>
-      </c>
       <c r="C34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="D34">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>74</v>
+      </c>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+      <c r="L34">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>75</v>
+      </c>
+      <c r="D35">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="J36" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36">
+        <f>SUM(L26:L34)</f>
+        <v>7.05</v>
+      </c>
+      <c r="N36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>72</v>
+      </c>
+      <c r="J37">
+        <v>20.024999999999999</v>
+      </c>
+      <c r="N37">
+        <f>J37-L$36</f>
+        <v>12.974999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38">
+        <v>13.621</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N39">
+        <f>J38-L$36</f>
+        <v>6.5710000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/200 - Chassis/220 - Actuation/Actuation Naming Guide.xlsx
+++ b/200 - Chassis/220 - Actuation/Actuation Naming Guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajkof\Documents\Wisconsin Racing\git\CAD\active-cad\200 - Chassis\220 - Actuation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396699F5-3256-4ABC-B1E8-645FB1BF09F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C6964E-649C-455F-9527-54C643AD056F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16140" yWindow="2568" windowWidth="6900" windowHeight="5736" xr2:uid="{42610CB4-049C-45A7-9990-C2DEF4AC588F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="7500" windowHeight="6000" xr2:uid="{42610CB4-049C-45A7-9990-C2DEF4AC588F}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3B9C7F-7B97-4B66-9CA8-9719EFF74CB4}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,7 +993,7 @@
         <v>15</v>
       </c>
       <c r="G26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
@@ -1045,7 +1045,7 @@
         <v>15</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" t="s">
         <v>74</v>
@@ -1075,7 +1075,7 @@
         <v>15</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29" t="s">
         <v>74</v>
@@ -1127,7 +1127,7 @@
         <v>60</v>
       </c>
       <c r="G31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H31" t="s">
         <v>74</v>
@@ -1153,7 +1153,7 @@
         <v>60</v>
       </c>
       <c r="G32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H32" t="s">
         <v>74</v>
@@ -1179,7 +1179,7 @@
         <v>60</v>
       </c>
       <c r="G33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H33" t="s">
         <v>74</v>
@@ -1202,7 +1202,7 @@
         <v>60</v>
       </c>
       <c r="G34">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
         <v>74</v>
@@ -1228,7 +1228,7 @@
         <v>15</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H35" t="s">
         <v>74</v>

--- a/200 - Chassis/220 - Actuation/Actuation Naming Guide.xlsx
+++ b/200 - Chassis/220 - Actuation/Actuation Naming Guide.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajkof\Documents\Wisconsin Racing\git\CAD\active-cad\200 - Chassis\220 - Actuation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajkof\Documents\Wisconsin Racing\git\active-cad\200 - Chassis\220 - Actuation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C6964E-649C-455F-9527-54C643AD056F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D53D205-A8F6-4886-BC42-6D9B6164EDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="7500" windowHeight="6000" xr2:uid="{42610CB4-049C-45A7-9990-C2DEF4AC588F}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{42610CB4-049C-45A7-9990-C2DEF4AC588F}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3B9C7F-7B97-4B66-9CA8-9719EFF74CB4}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1101,7 +1101,7 @@
         <v>60</v>
       </c>
       <c r="G30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
         <v>74</v>
@@ -1179,7 +1179,7 @@
         <v>60</v>
       </c>
       <c r="G33">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
         <v>74</v>
@@ -1202,7 +1202,7 @@
         <v>60</v>
       </c>
       <c r="G34">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H34" t="s">
         <v>74</v>

--- a/200 - Chassis/220 - Actuation/Actuation Naming Guide.xlsx
+++ b/200 - Chassis/220 - Actuation/Actuation Naming Guide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajkof\Documents\Wisconsin Racing\git\CAD\active-cad\200 - Chassis\220 - Actuation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshu\Documents\git\cad-workshop\active-cad\200 - Chassis\220 - Actuation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C6964E-649C-455F-9527-54C643AD056F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23D61C7-3399-4FC4-AD83-1C4B839B28E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="7500" windowHeight="6000" xr2:uid="{42610CB4-049C-45A7-9990-C2DEF4AC588F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{42610CB4-049C-45A7-9990-C2DEF4AC588F}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>Description</t>
   </si>
@@ -181,12 +181,6 @@
     <t>F Aft Bellcrank Mount L</t>
   </si>
   <si>
-    <t>R Rore Bellcrank Mount R</t>
-  </si>
-  <si>
-    <t>R Rore Bellcrank Mount L</t>
-  </si>
-  <si>
     <t>R Aft Bellcrank Mount R</t>
   </si>
   <si>
@@ -211,9 +205,6 @@
     <t>Shaft Bearing Reducer</t>
   </si>
   <si>
-    <t>R Aft Bellcrank Mount Standoff</t>
-  </si>
-  <si>
     <t>Adjustment Bolt</t>
   </si>
   <si>
@@ -263,6 +254,18 @@
   </si>
   <si>
     <t>Rear Tierod Long Rod End Insert LH</t>
+  </si>
+  <si>
+    <t>R Fore Bellcrank Mount L</t>
+  </si>
+  <si>
+    <t>R Fore Bellcrank Mount R</t>
+  </si>
+  <si>
+    <t>R Aft Bellcrank Mount Standoff L</t>
+  </si>
+  <si>
+    <t>R Aft Bellcrank Mount Standoff R</t>
   </si>
 </sst>
 </file>
@@ -669,21 +672,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3B9C7F-7B97-4B66-9CA8-9719EFF74CB4}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" customWidth="1"/>
-    <col min="6" max="6" width="3.44140625" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -706,17 +709,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>22</v>
@@ -728,12 +731,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>22</v>
@@ -745,21 +748,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="3">
         <v>22</v>
@@ -771,12 +774,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -784,12 +787,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="3">
         <v>22</v>
@@ -801,12 +804,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -814,12 +817,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3">
         <v>22</v>
@@ -831,12 +834,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="3">
         <v>22</v>
@@ -848,24 +851,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D17" s="3">
         <v>22</v>
@@ -877,12 +880,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -890,12 +893,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -903,12 +906,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D20" s="3">
         <v>22</v>
@@ -920,12 +923,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D21" s="3">
         <v>22</v>
@@ -937,12 +940,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" s="3">
         <v>22</v>
@@ -954,12 +957,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D23" s="3">
         <v>22</v>
@@ -971,102 +974,83 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="3">
+        <v>22</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="1">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="D26">
-        <v>22</v>
-      </c>
-      <c r="E26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26">
+      <c r="D27">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27">
         <v>10</v>
       </c>
-      <c r="H26" t="s">
-        <v>74</v>
-      </c>
-      <c r="J26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L26">
+      <c r="H27" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" t="s">
+        <v>64</v>
+      </c>
+      <c r="L27">
         <v>1.3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="1">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
         <v>3</v>
       </c>
-      <c r="C27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27">
-        <v>22</v>
-      </c>
-      <c r="E27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27">
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28">
         <v>6</v>
       </c>
-      <c r="H27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J27" t="s">
-        <v>61</v>
-      </c>
-      <c r="L27">
+      <c r="H28" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28">
         <v>2.25</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="1">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
         <v>5</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>39</v>
-      </c>
-      <c r="D28">
-        <v>22</v>
-      </c>
-      <c r="E28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28">
-        <v>4</v>
-      </c>
-      <c r="H28" t="s">
-        <v>74</v>
-      </c>
-      <c r="J28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L28">
-        <v>0.45</v>
-      </c>
-      <c r="M28">
-        <f>SUM(L26:L28)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="1">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>68</v>
       </c>
       <c r="D29">
         <v>22</v>
@@ -1078,198 +1062,228 @@
         <v>4</v>
       </c>
       <c r="H29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J29" t="s">
         <v>59</v>
       </c>
       <c r="L29">
+        <v>0.45</v>
+      </c>
+      <c r="M29">
+        <f>SUM(L27:L29)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>71</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="1">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
         <v>9</v>
       </c>
-      <c r="C30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30">
-        <v>17</v>
-      </c>
-      <c r="E30" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30">
-        <v>9</v>
-      </c>
-      <c r="H30" t="s">
-        <v>74</v>
-      </c>
-      <c r="J30" t="s">
-        <v>63</v>
-      </c>
-      <c r="L30">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="1">
-        <v>11</v>
-      </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D31">
         <v>17</v>
       </c>
       <c r="E31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31">
+        <v>9</v>
+      </c>
+      <c r="H31" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" t="s">
         <v>60</v>
       </c>
-      <c r="G31">
-        <v>10</v>
-      </c>
-      <c r="H31" t="s">
-        <v>74</v>
-      </c>
-      <c r="J31" t="s">
-        <v>64</v>
-      </c>
       <c r="L31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D32">
         <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G32">
         <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J32" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L32">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D33">
         <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G33">
         <v>10</v>
       </c>
       <c r="H33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L33">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34">
         <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
+        <v>71</v>
+      </c>
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
         <v>14</v>
       </c>
-      <c r="H34" t="s">
-        <v>74</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L35">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36">
+        <v>22</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="J37" t="s">
         <v>66</v>
       </c>
-      <c r="L34">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="1">
-        <v>15</v>
-      </c>
-      <c r="C35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35">
-        <v>22</v>
-      </c>
-      <c r="E35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35">
-        <v>4</v>
-      </c>
-      <c r="H35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="1"/>
-      <c r="J36" t="s">
+      <c r="L37">
+        <f>SUM(L27:L35)</f>
+        <v>7.05</v>
+      </c>
+      <c r="N37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
         <v>69</v>
       </c>
-      <c r="L36">
-        <f>SUM(L26:L34)</f>
-        <v>7.05</v>
-      </c>
-      <c r="N36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I37" t="s">
-        <v>72</v>
-      </c>
-      <c r="J37">
+      <c r="J38">
         <v>20.024999999999999</v>
       </c>
-      <c r="N37">
-        <f>J37-L$36</f>
+      <c r="N38">
+        <f>J38-L$37</f>
         <v>12.974999999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I38" t="s">
-        <v>70</v>
-      </c>
-      <c r="J38">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+      <c r="J39">
         <v>13.621</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="N39">
-        <f>J38-L$36</f>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <f>J39-L$37</f>
         <v>6.5710000000000006</v>
       </c>
     </row>
@@ -1287,14 +1301,14 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1302,7 +1316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -1310,7 +1324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>5</v>
       </c>
@@ -1318,7 +1332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>7</v>
       </c>
@@ -1326,16 +1340,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>1</v>
       </c>
@@ -1343,7 +1357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>3</v>
       </c>
@@ -1351,7 +1365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>5</v>
       </c>
@@ -1359,7 +1373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>7</v>
       </c>
@@ -1367,7 +1381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -1375,7 +1389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -1383,7 +1397,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -1391,7 +1405,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="161.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>15</v>
       </c>
@@ -1399,7 +1413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>17</v>
       </c>
@@ -1407,7 +1421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>19</v>
       </c>
@@ -1415,7 +1429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>21</v>
       </c>
@@ -1423,16 +1437,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>1</v>
       </c>
@@ -1440,7 +1454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>3</v>
       </c>
@@ -1448,7 +1462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>5</v>
       </c>
@@ -1456,7 +1470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>7</v>
       </c>
@@ -1464,7 +1478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>9</v>
       </c>
@@ -1472,7 +1486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>11</v>
       </c>
@@ -1480,7 +1494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>13</v>
       </c>
@@ -1488,7 +1502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>15</v>
       </c>
